--- a/Resouces/EnemyData.xlsx
+++ b/Resouces/EnemyData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>敵の名前</t>
     <rPh sb="0" eb="1">
@@ -38,22 +38,75 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>敵の体力</t>
+    <t>体力</t>
+    <rPh sb="0" eb="2">
+      <t>タイリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>力</t>
     <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>タイリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>敵の力</t>
+      <t>チカラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>防御</t>
+    <rPh sb="0" eb="2">
+      <t>ボウギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>属性</t>
+    <rPh sb="0" eb="2">
+      <t>ゾクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゴブリン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドラゴン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Resouces/Textures/goast.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Resouces/Textures/goblin.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Resouces/Textures/doragon.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スライム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水</t>
     <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>チカラ</t>
+      <t>ミズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>土</t>
+    <rPh sb="0" eb="1">
+      <t>ツチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>火</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -380,18 +433,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -403,6 +456,72 @@
       </c>
       <c r="D1" t="s">
         <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>255</v>
+      </c>
+      <c r="D4">
+        <v>255</v>
+      </c>
+      <c r="E4">
+        <v>255</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
